--- a/Projects/INBEVNL/Data/POCE_Template.xlsx
+++ b/Projects/INBEVNL/Data/POCE_Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -67,16 +67,13 @@
     <t xml:space="preserve">Winning Assortment</t>
   </si>
   <si>
-    <t xml:space="preserve">Out of Stock</t>
+    <t xml:space="preserve">Core Assortment</t>
   </si>
   <si>
     <t xml:space="preserve">A,B,C</t>
   </si>
   <si>
     <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Assortment</t>
   </si>
   <si>
     <t xml:space="preserve">Planogram HJ Pilsener</t>
@@ -381,20 +378,20 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="A8 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.24651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.7348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2232558139535"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.7209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.8279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.43255813953488"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.4558139534884"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9162790697674"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.9674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,36 +572,36 @@
       </c>
       <c r="G8" s="0"/>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -615,21 +612,21 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -639,21 +636,21 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -665,67 +662,67 @@
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/INBEVNL/Data/POCE_Template.xlsx
+++ b/Projects/INBEVNL/Data/POCE_Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -67,13 +67,16 @@
     <t xml:space="preserve">Winning Assortment</t>
   </si>
   <si>
+    <t xml:space="preserve">Out of Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A,B,C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
     <t xml:space="preserve">Core Assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A,B,C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">Planogram HJ Pilsener</t>
@@ -378,20 +381,20 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="A8 A19"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2232558139535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.7209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.8279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.43255813953488"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.4558139534884"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9162790697674"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.9674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.706976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.3953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.906976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.58139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.8744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.0372093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.246511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,36 +575,36 @@
       </c>
       <c r="G8" s="0"/>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -612,21 +615,21 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -636,21 +639,21 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -662,67 +665,67 @@
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/INBEVNL/Data/POCE_Template.xlsx
+++ b/Projects/INBEVNL/Data/POCE_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -109,18 +109,12 @@
     <t xml:space="preserve">2nd Placement MBR/ KVDB &amp; Gondola</t>
   </si>
   <si>
-    <t xml:space="preserve">additional_attribute_8</t>
-  </si>
-  <si>
     <t xml:space="preserve">MBR Assortment</t>
   </si>
   <si>
     <t xml:space="preserve">Promotion</t>
   </si>
   <si>
-    <t xml:space="preserve">additional_attribute_9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Promo Assortment</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t xml:space="preserve">Adjacency</t>
   </si>
   <si>
-    <t xml:space="preserve">additional_attribute_10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brand Block Assortment</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
     <t xml:space="preserve">Shelf Placement</t>
   </si>
   <si>
-    <t xml:space="preserve">additional_attribute_11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shelf Placement Main Shelf Assortment</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Shelf Placement/Adjacency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_attribute_12</t>
   </si>
   <si>
     <t xml:space="preserve">Shelf Level Segmented Assortment</t>
@@ -378,23 +363,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.706976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.3953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.906976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.58139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.8744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.0372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.246511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.0093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.8279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.72093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.293023255814"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.3023255813954"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.5348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,7 +563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -588,7 +573,9 @@
       <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -606,7 +593,7 @@
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -628,8 +615,8 @@
       <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -639,12 +626,12 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -652,8 +639,8 @@
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -665,69 +652,70 @@
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/INBEVNL/Data/POCE_Template.xlsx
+++ b/Projects/INBEVNL/Data/POCE_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -365,21 +365,21 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.0093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.8279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.72093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.293023255814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.3023255813954"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.5348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.6139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.0837209302326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.2232558139535"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.893023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.1488372093023"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="12.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -576,7 +576,9 @@
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="1" t="s">

--- a/Projects/INBEVNL/Data/POCE_Template.xlsx
+++ b/Projects/INBEVNL/Data/POCE_Template.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">2nd Display</t>
   </si>
   <si>
-    <t xml:space="preserve">2nd Placement MBR/ KVDB &amp; Gondola</t>
+    <t xml:space="preserve">Fixed 2nd Placement MBR/ KVDB &amp; Gondola</t>
   </si>
   <si>
     <t xml:space="preserve">MBR Assortment</t>
@@ -366,20 +366,20 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.6139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.5488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.0837209302326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.2232558139535"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.893023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.1488372093023"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="12.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3162790697674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.3953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.3488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.9209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3162790697674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.13953488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.5674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.2418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="12.3813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,7 +409,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -431,7 +431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -453,7 +453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -475,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -497,7 +497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -519,7 +519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>

--- a/Projects/INBEVNL/Data/POCE_Template.xlsx
+++ b/Projects/INBEVNL/Data/POCE_Template.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">2nd Display</t>
   </si>
   <si>
-    <t xml:space="preserve">Fixed 2nd Placement MBR/ KVDB &amp; Gondola</t>
+    <t xml:space="preserve">Fixed 2nd Placement MBR/ KVDB &amp; Gondola</t>
   </si>
   <si>
     <t xml:space="preserve">MBR Assortment</t>
@@ -366,20 +366,20 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3162790697674"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.3953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.3488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.9209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3162790697674"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.13953488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.5674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.2418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="12.3813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.2418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.4744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.4883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.42790697674419"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1255813953488"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.6418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="12.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,6 +717,7 @@
         <v>40</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
